--- a/Documentation/Sprint Backlog.xlsx
+++ b/Documentation/Sprint Backlog.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tcoltra1\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tcoltra1\Desktop\New folder\CorleyProjectDiscountFinder\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A63E3F8B-D402-44BF-8EE8-1FA762DF8EE9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4196A4C7-2E28-4BEE-9346-FCEE0016C341}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Task</t>
   </si>
@@ -42,22 +42,37 @@
     <t>Estimate</t>
   </si>
   <si>
-    <t>create Item class</t>
-  </si>
-  <si>
-    <t>create category enum</t>
-  </si>
-  <si>
-    <t>create seller class</t>
-  </si>
-  <si>
-    <t>create discount finder class</t>
-  </si>
-  <si>
-    <t>set up UI</t>
-  </si>
-  <si>
-    <t>set up UI Bindings</t>
+    <t>ACTUAL</t>
+  </si>
+  <si>
+    <t>implement basic UI</t>
+  </si>
+  <si>
+    <t>implement back end discount list</t>
+  </si>
+  <si>
+    <t>implement finding specific item</t>
+  </si>
+  <si>
+    <t>implement finding seller items</t>
+  </si>
+  <si>
+    <t>implmenet basic item list</t>
+  </si>
+  <si>
+    <t>implement limiting by category</t>
+  </si>
+  <si>
+    <t>implement favoriting a seller</t>
+  </si>
+  <si>
+    <t>implemenet limit by distance</t>
+  </si>
+  <si>
+    <t>figuring out maven/github</t>
+  </si>
+  <si>
+    <t>Code review</t>
   </si>
 </sst>
 </file>
@@ -119,7 +134,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -129,6 +144,13 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -410,21 +432,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7020883B-3029-4319-B006-C2C3BA3C5B2B}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="52.5703125" customWidth="1"/>
     <col min="2" max="2" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.28515625" customWidth="1"/>
     <col min="4" max="4" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -437,99 +460,174 @@
       <c r="D1" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="E1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="1">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="7">
+        <v>60</v>
+      </c>
+      <c r="E2" s="8">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1">
         <v>30</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B4" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1">
         <v>30</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" s="1">
         <v>1</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1">
-        <f>60*5</f>
-        <v>300</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="E5">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1">
-        <f>2*60</f>
+        <v>30</v>
+      </c>
+      <c r="E6">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="1">
+        <v>3</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1">
+        <v>30</v>
+      </c>
+      <c r="E7">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="1">
+        <v>4</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1">
+        <v>30</v>
+      </c>
+      <c r="E8">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="1">
+        <v>5</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1">
+        <v>30</v>
+      </c>
+      <c r="E9">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="1">
+        <v>7</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1">
+        <v>30</v>
+      </c>
+      <c r="E10">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1">
+        <v>60</v>
+      </c>
+      <c r="E11">
         <v>120</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="1">
-        <v>1</v>
-      </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="2">
-        <f>SUM(D2:D8)</f>
-        <v>510</v>
+      <c r="B12" s="5"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="2">
+        <f>SUM(D3:D10)</f>
+        <v>240</v>
+      </c>
+      <c r="E12">
+        <f>SUM(E3:E10)</f>
+        <v>195</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A12:B12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
